--- a/results/P2_signif/CER.xlsx
+++ b/results/P2_signif/CER.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yzho0040\Python\Nonlinear-Models-in-Time-Series-Analysis\results\P2_signif\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE0936-3DA9-4B40-B79A-EA7E3B9C3991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,17 +147,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +245,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +297,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +490,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,235 +510,295 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01493593644544033</v>
+        <v>1.4935936445440331E-2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.01154761883276598</v>
-      </c>
-      <c r="C3">
-        <v>-0.003388317612674352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1.154761883276598E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-3.3883176126743519E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-1.521640260607381E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02008144537926557</v>
-      </c>
-      <c r="C4">
-        <v>0.005145508933825234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>2.008144537926557E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.1455089338252342E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-3.8598588160304297E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.007907382734485373</v>
-      </c>
-      <c r="C5">
-        <v>-0.00702855371095496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7.9073827344853728E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-7.0285537109549597E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.0008455901279217E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01414291044722632</v>
-      </c>
-      <c r="C6">
-        <v>-0.000793025998214009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.414291044722632E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-7.93025998214009E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.6083983432731197E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.001184206784911384</v>
-      </c>
-      <c r="C7">
-        <v>-0.01375172966052895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1.1842067849113841E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1.375172966052895E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1.2976097378535282E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02239422836120809</v>
-      </c>
-      <c r="C8">
-        <v>0.007458291915767754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2.239422836120809E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.4582919157677539E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-2.0949722480185194E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.02076518811007105</v>
-      </c>
-      <c r="C9">
-        <v>0.005829251664630714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.076518811007105E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.8292516646307139E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-4.79788850516597E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.017757074430516</v>
-      </c>
-      <c r="C10">
-        <v>0.002821137985075663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.7757074430515999E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.821137985075663E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1.7238363708467833E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.007512038317832988</v>
-      </c>
-      <c r="C11">
-        <v>-0.007423898127607345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7.5120383178329878E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-7.4238981276073448E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-8.7959616821670066E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01630739306640386</v>
-      </c>
-      <c r="C12">
-        <v>0.001371456620963525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1.6307393066403861E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.371456620963525E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.8965977632078492E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.007512038317832988</v>
-      </c>
-      <c r="C13">
-        <v>-0.007423898127607345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>7.5120383178329878E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-7.4238981276073448E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-8.7959616821659883E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.01559880222272097</v>
-      </c>
-      <c r="C14">
-        <v>0.0006628657772806395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.559880222272097E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.6286577728063949E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1.8955936233774791E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.01738924545205227</v>
-      </c>
-      <c r="C15">
-        <v>0.002453309006611936</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.7389245452052272E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.4533090066119361E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.0812454520522721E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.01565317875856617</v>
-      </c>
-      <c r="C16">
-        <v>0.0007172423131258359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>1.5653178758566168E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.172423131258359E-4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-3.839728191032319E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01738924545205227</v>
-      </c>
-      <c r="C17">
-        <v>0.002453309006611936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>1.7389245452052272E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.4533090066119361E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.0812454520522721E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01019471746748861</v>
-      </c>
-      <c r="C18">
-        <v>-0.004741218977951718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1.0194717467488609E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-4.741218977951718E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.4313278536980428E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.009881501269774055</v>
-      </c>
-      <c r="C19">
-        <v>-0.005054435175666278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>9.8815012697740547E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-5.0544351756662779E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.329896524331472E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.01511738214144194</v>
-      </c>
-      <c r="C20">
-        <v>0.0001814456960016111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1.511738214144194E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.814456960016111E-4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-3.1595465923471202E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.01726203299359142</v>
-      </c>
-      <c r="C21">
-        <v>0.002326096548151085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1.7262032993591421E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.326096548151085E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.8471743996281917E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01069032180983984</v>
-      </c>
-      <c r="C22">
-        <v>-0.004245614635600489</v>
+        <v>1.069032180983984E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-4.2456146356004889E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-4.3516303718102393E-3</v>
       </c>
     </row>
   </sheetData>
